--- a/Data/ROY Data/rookies_00_01.xlsx
+++ b/Data/ROY Data/rookies_00_01.xlsx
@@ -927,76 +927,76 @@
         <v>23</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>187</v>
+        <v>65</v>
       </c>
       <c r="H2">
-        <v>4067</v>
+        <v>1382</v>
       </c>
       <c r="I2">
-        <v>655</v>
+        <v>239</v>
       </c>
       <c r="J2">
-        <v>1552</v>
+        <v>573</v>
       </c>
       <c r="K2">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="L2">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="M2">
-        <v>339</v>
+        <v>123</v>
       </c>
       <c r="N2">
-        <v>417</v>
+        <v>150</v>
       </c>
       <c r="O2">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="P2">
-        <v>409</v>
+        <v>143</v>
       </c>
       <c r="Q2">
-        <v>227</v>
+        <v>62</v>
       </c>
       <c r="R2">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="S2">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="T2">
-        <v>203</v>
+        <v>75</v>
       </c>
       <c r="U2">
-        <v>377</v>
+        <v>139</v>
       </c>
       <c r="V2">
-        <v>1690</v>
+        <v>618</v>
       </c>
       <c r="W2">
-        <v>0.422</v>
+        <v>0.417</v>
       </c>
       <c r="X2">
-        <v>0.339</v>
+        <v>0.37</v>
       </c>
       <c r="Y2">
-        <v>0.8129999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="Z2">
-        <v>21.7</v>
+        <v>21.3</v>
       </c>
       <c r="AA2">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB2">
         <v>2.2</v>
       </c>
       <c r="AC2">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AD2" t="s">
         <v>147</v>
@@ -1019,76 +1019,76 @@
         <v>20</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>973</v>
+        <v>259</v>
       </c>
       <c r="I3">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="J3">
-        <v>269</v>
+        <v>65</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="N3">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="O3">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="P3">
-        <v>238</v>
+        <v>56</v>
       </c>
       <c r="Q3">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="R3">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="S3">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="T3">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="U3">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="V3">
-        <v>251</v>
+        <v>47</v>
       </c>
       <c r="W3">
-        <v>0.361</v>
+        <v>0.262</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.5590000000000001</v>
+        <v>0.464</v>
       </c>
       <c r="Z3">
-        <v>10.2</v>
+        <v>7.4</v>
       </c>
       <c r="AA3">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="AB3">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="AC3">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AD3" t="s">
         <v>147</v>
@@ -1111,76 +1111,73 @@
         <v>22</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>38</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>22</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>6</v>
+      </c>
+      <c r="R4">
         <v>2</v>
       </c>
-      <c r="G4">
-        <v>27</v>
-      </c>
-      <c r="H4">
-        <v>266</v>
-      </c>
-      <c r="I4">
-        <v>32</v>
-      </c>
-      <c r="J4">
-        <v>90</v>
-      </c>
-      <c r="K4">
-        <v>4</v>
-      </c>
-      <c r="L4">
-        <v>15</v>
-      </c>
-      <c r="M4">
-        <v>9</v>
-      </c>
-      <c r="N4">
-        <v>10</v>
-      </c>
-      <c r="O4">
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
         <v>5</v>
       </c>
-      <c r="P4">
-        <v>21</v>
-      </c>
-      <c r="Q4">
-        <v>40</v>
-      </c>
-      <c r="R4">
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
         <v>19</v>
       </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>17</v>
-      </c>
-      <c r="U4">
-        <v>31</v>
-      </c>
-      <c r="V4">
-        <v>77</v>
-      </c>
       <c r="W4">
-        <v>0.356</v>
+        <v>0.364</v>
       </c>
       <c r="X4">
-        <v>0.267</v>
-      </c>
-      <c r="Y4">
-        <v>0.9</v>
+        <v>0.375</v>
       </c>
       <c r="Z4">
-        <v>9.9</v>
+        <v>4.8</v>
       </c>
       <c r="AA4">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="AB4">
+        <v>0.4</v>
+      </c>
+      <c r="AC4">
         <v>0.8</v>
-      </c>
-      <c r="AC4">
-        <v>1.5</v>
       </c>
       <c r="AD4" t="s">
         <v>147</v>
@@ -1203,76 +1200,73 @@
         <v>24</v>
       </c>
       <c r="F5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>706</v>
+        <v>5</v>
       </c>
       <c r="H5">
-        <v>19813</v>
+        <v>30</v>
       </c>
       <c r="I5">
-        <v>2581</v>
+        <v>2</v>
       </c>
       <c r="J5">
-        <v>5949</v>
+        <v>7</v>
       </c>
       <c r="K5">
-        <v>956</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>2357</v>
+        <v>3</v>
       </c>
       <c r="M5">
-        <v>880</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1101</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>408</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1968</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>1208</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>484</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>695</v>
+        <v>2</v>
       </c>
       <c r="U5">
-        <v>1840</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>6998</v>
+        <v>5</v>
       </c>
       <c r="W5">
-        <v>0.434</v>
+        <v>0.286</v>
       </c>
       <c r="X5">
-        <v>0.406</v>
-      </c>
-      <c r="Y5">
-        <v>0.799</v>
+        <v>0.333</v>
       </c>
       <c r="Z5">
-        <v>28.1</v>
+        <v>6</v>
       </c>
       <c r="AA5">
-        <v>9.9</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>2.8</v>
+        <v>0.2</v>
       </c>
       <c r="AC5">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="s">
         <v>147</v>
@@ -1295,76 +1289,73 @@
         <v>25</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>605</v>
+        <v>64</v>
       </c>
       <c r="H6">
-        <v>13981</v>
+        <v>1098</v>
       </c>
       <c r="I6">
-        <v>2020</v>
+        <v>101</v>
       </c>
       <c r="J6">
-        <v>4011</v>
+        <v>200</v>
       </c>
       <c r="K6">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>864</v>
+        <v>46</v>
       </c>
       <c r="N6">
-        <v>1195</v>
+        <v>66</v>
       </c>
       <c r="O6">
-        <v>895</v>
+        <v>97</v>
       </c>
       <c r="P6">
-        <v>2784</v>
+        <v>231</v>
       </c>
       <c r="Q6">
-        <v>513</v>
+        <v>32</v>
       </c>
       <c r="R6">
-        <v>327</v>
+        <v>39</v>
       </c>
       <c r="S6">
-        <v>508</v>
+        <v>76</v>
       </c>
       <c r="T6">
-        <v>933</v>
+        <v>62</v>
       </c>
       <c r="U6">
-        <v>1554</v>
+        <v>183</v>
       </c>
       <c r="V6">
-        <v>4941</v>
+        <v>248</v>
       </c>
       <c r="W6">
-        <v>0.504</v>
-      </c>
-      <c r="X6">
-        <v>0.359</v>
+        <v>0.505</v>
       </c>
       <c r="Y6">
-        <v>0.723</v>
+        <v>0.697</v>
       </c>
       <c r="Z6">
-        <v>23.1</v>
+        <v>17.2</v>
       </c>
       <c r="AA6">
-        <v>8.199999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="AB6">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="AC6">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AD6" t="s">
         <v>147</v>
@@ -1387,76 +1378,76 @@
         <v>23</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>456</v>
+        <v>15</v>
       </c>
       <c r="H7">
-        <v>6477</v>
+        <v>126</v>
       </c>
       <c r="I7">
-        <v>664</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>1628</v>
+        <v>31</v>
       </c>
       <c r="K7">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>653</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>537</v>
+        <v>11</v>
       </c>
       <c r="N7">
-        <v>624</v>
+        <v>18</v>
       </c>
       <c r="O7">
-        <v>286</v>
+        <v>8</v>
       </c>
       <c r="P7">
-        <v>1050</v>
+        <v>23</v>
       </c>
       <c r="Q7">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="R7">
-        <v>295</v>
+        <v>7</v>
       </c>
       <c r="S7">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="T7">
-        <v>330</v>
+        <v>9</v>
       </c>
       <c r="U7">
-        <v>890</v>
+        <v>27</v>
       </c>
       <c r="V7">
-        <v>2108</v>
+        <v>31</v>
       </c>
       <c r="W7">
-        <v>0.408</v>
+        <v>0.323</v>
       </c>
       <c r="X7">
-        <v>0.372</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.861</v>
+        <v>0.611</v>
       </c>
       <c r="Z7">
-        <v>14.2</v>
+        <v>8.4</v>
       </c>
       <c r="AA7">
-        <v>4.6</v>
+        <v>2.1</v>
       </c>
       <c r="AB7">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AD7" t="s">
         <v>147</v>
@@ -1479,76 +1470,76 @@
         <v>23</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="H8">
-        <v>1863</v>
+        <v>1268</v>
       </c>
       <c r="I8">
-        <v>233</v>
+        <v>160</v>
       </c>
       <c r="J8">
-        <v>599</v>
+        <v>400</v>
       </c>
       <c r="K8">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L8">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="M8">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="N8">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="O8">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="P8">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="Q8">
-        <v>310</v>
+        <v>207</v>
       </c>
       <c r="R8">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="S8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>201</v>
+        <v>139</v>
       </c>
       <c r="U8">
-        <v>213</v>
+        <v>153</v>
       </c>
       <c r="V8">
-        <v>609</v>
+        <v>422</v>
       </c>
       <c r="W8">
-        <v>0.389</v>
+        <v>0.4</v>
       </c>
       <c r="X8">
-        <v>0.267</v>
+        <v>0.294</v>
       </c>
       <c r="Y8">
-        <v>0.728</v>
+        <v>0.708</v>
       </c>
       <c r="Z8">
-        <v>11.2</v>
+        <v>16.3</v>
       </c>
       <c r="AA8">
-        <v>3.6</v>
+        <v>5.4</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="AC8">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="AD8" t="s">
         <v>147</v>
@@ -1571,73 +1562,73 @@
         <v>23</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="H9">
-        <v>2178</v>
+        <v>222</v>
       </c>
       <c r="I9">
-        <v>338</v>
+        <v>27</v>
       </c>
       <c r="J9">
-        <v>743</v>
+        <v>71</v>
       </c>
       <c r="K9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="N9">
-        <v>214</v>
+        <v>24</v>
       </c>
       <c r="O9">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="P9">
-        <v>443</v>
+        <v>37</v>
       </c>
       <c r="Q9">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="R9">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="T9">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="U9">
-        <v>295</v>
+        <v>27</v>
       </c>
       <c r="V9">
-        <v>841</v>
+        <v>71</v>
       </c>
       <c r="W9">
-        <v>0.455</v>
+        <v>0.38</v>
       </c>
       <c r="X9">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.738</v>
+        <v>0.708</v>
       </c>
       <c r="Z9">
-        <v>14.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AA9">
-        <v>5.6</v>
+        <v>3.1</v>
       </c>
       <c r="AB9">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="AC9">
         <v>0.3</v>
@@ -1755,76 +1746,76 @@
         <v>20</v>
       </c>
       <c r="F11">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1326</v>
+        <v>61</v>
       </c>
       <c r="H11">
-        <v>38988</v>
+        <v>1050</v>
       </c>
       <c r="I11">
-        <v>6750</v>
+        <v>107</v>
       </c>
       <c r="J11">
-        <v>16463</v>
+        <v>304</v>
       </c>
       <c r="K11">
-        <v>2220</v>
+        <v>41</v>
       </c>
       <c r="L11">
-        <v>6377</v>
+        <v>117</v>
       </c>
       <c r="M11">
-        <v>3694</v>
+        <v>27</v>
       </c>
       <c r="N11">
-        <v>4286</v>
+        <v>34</v>
       </c>
       <c r="O11">
-        <v>466</v>
+        <v>9</v>
       </c>
       <c r="P11">
-        <v>2948</v>
+        <v>89</v>
       </c>
       <c r="Q11">
-        <v>4538</v>
+        <v>141</v>
       </c>
       <c r="R11">
-        <v>1179</v>
+        <v>43</v>
       </c>
       <c r="S11">
-        <v>271</v>
+        <v>14</v>
       </c>
       <c r="T11">
-        <v>2476</v>
+        <v>85</v>
       </c>
       <c r="U11">
-        <v>2007</v>
+        <v>68</v>
       </c>
       <c r="V11">
-        <v>19414</v>
+        <v>282</v>
       </c>
       <c r="W11">
-        <v>0.41</v>
+        <v>0.352</v>
       </c>
       <c r="X11">
-        <v>0.348</v>
+        <v>0.35</v>
       </c>
       <c r="Y11">
-        <v>0.862</v>
+        <v>0.794</v>
       </c>
       <c r="Z11">
-        <v>29.4</v>
+        <v>17.2</v>
       </c>
       <c r="AA11">
-        <v>14.6</v>
+        <v>4.6</v>
       </c>
       <c r="AB11">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="AC11">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="AD11" t="s">
         <v>147</v>
@@ -1847,76 +1838,76 @@
         <v>20</v>
       </c>
       <c r="F12">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>728</v>
+        <v>76</v>
       </c>
       <c r="H12">
-        <v>14134</v>
+        <v>1237</v>
       </c>
       <c r="I12">
-        <v>1810</v>
+        <v>148</v>
       </c>
       <c r="J12">
-        <v>4356</v>
+        <v>362</v>
       </c>
       <c r="K12">
-        <v>446</v>
+        <v>28</v>
       </c>
       <c r="L12">
-        <v>1277</v>
+        <v>80</v>
       </c>
       <c r="M12">
-        <v>1001</v>
+        <v>125</v>
       </c>
       <c r="N12">
-        <v>1253</v>
+        <v>179</v>
       </c>
       <c r="O12">
-        <v>132</v>
+        <v>8</v>
       </c>
       <c r="P12">
-        <v>964</v>
+        <v>89</v>
       </c>
       <c r="Q12">
-        <v>1601</v>
+        <v>177</v>
       </c>
       <c r="R12">
-        <v>463</v>
+        <v>41</v>
       </c>
       <c r="S12">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="T12">
-        <v>803</v>
+        <v>94</v>
       </c>
       <c r="U12">
-        <v>1221</v>
+        <v>107</v>
       </c>
       <c r="V12">
-        <v>5067</v>
+        <v>449</v>
       </c>
       <c r="W12">
-        <v>0.416</v>
+        <v>0.409</v>
       </c>
       <c r="X12">
-        <v>0.349</v>
+        <v>0.35</v>
       </c>
       <c r="Y12">
-        <v>0.799</v>
+        <v>0.698</v>
       </c>
       <c r="Z12">
-        <v>19.4</v>
+        <v>16.3</v>
       </c>
       <c r="AA12">
-        <v>7</v>
+        <v>5.9</v>
       </c>
       <c r="AB12">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AC12">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AD12" t="s">
         <v>147</v>
@@ -2031,76 +2022,76 @@
         <v>22</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>289</v>
+        <v>72</v>
       </c>
       <c r="H14">
-        <v>6032</v>
+        <v>1580</v>
       </c>
       <c r="I14">
-        <v>1103</v>
+        <v>278</v>
       </c>
       <c r="J14">
-        <v>2536</v>
+        <v>646</v>
       </c>
       <c r="K14">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="L14">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="M14">
-        <v>555</v>
+        <v>117</v>
       </c>
       <c r="N14">
-        <v>803</v>
+        <v>161</v>
       </c>
       <c r="O14">
-        <v>375</v>
+        <v>76</v>
       </c>
       <c r="P14">
-        <v>1340</v>
+        <v>313</v>
       </c>
       <c r="Q14">
-        <v>352</v>
+        <v>76</v>
       </c>
       <c r="R14">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="S14">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="T14">
-        <v>428</v>
+        <v>124</v>
       </c>
       <c r="U14">
-        <v>648</v>
+        <v>175</v>
       </c>
       <c r="V14">
-        <v>2782</v>
+        <v>683</v>
       </c>
       <c r="W14">
-        <v>0.435</v>
+        <v>0.43</v>
       </c>
       <c r="X14">
-        <v>0.191</v>
+        <v>0.256</v>
       </c>
       <c r="Y14">
-        <v>0.6909999999999999</v>
+        <v>0.727</v>
       </c>
       <c r="Z14">
-        <v>20.9</v>
+        <v>21.9</v>
       </c>
       <c r="AA14">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="AB14">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="AC14">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AD14" t="s">
         <v>147</v>
@@ -2212,76 +2203,76 @@
         <v>22</v>
       </c>
       <c r="F16">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>187</v>
+        <v>8</v>
       </c>
       <c r="H16">
-        <v>2033</v>
+        <v>152</v>
       </c>
       <c r="I16">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="J16">
-        <v>496</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>197</v>
+        <v>9</v>
       </c>
       <c r="M16">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="N16">
-        <v>177</v>
+        <v>5</v>
       </c>
       <c r="O16">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>207</v>
+        <v>9</v>
       </c>
       <c r="Q16">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="R16">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="S16">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="T16">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="U16">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="V16">
-        <v>571</v>
+        <v>39</v>
       </c>
       <c r="W16">
-        <v>0.361</v>
+        <v>0.39</v>
       </c>
       <c r="X16">
-        <v>0.32</v>
+        <v>0.333</v>
       </c>
       <c r="Y16">
-        <v>0.847</v>
+        <v>0.8</v>
       </c>
       <c r="Z16">
-        <v>10.9</v>
+        <v>19</v>
       </c>
       <c r="AA16">
-        <v>3.1</v>
+        <v>4.9</v>
       </c>
       <c r="AB16">
         <v>1.1</v>
       </c>
       <c r="AC16">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="AD16" t="s">
         <v>147</v>
@@ -2304,19 +2295,19 @@
         <v>24</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H17">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="I17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J17">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -2325,52 +2316,52 @@
         <v>3</v>
       </c>
       <c r="M17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O17">
+        <v>7</v>
+      </c>
+      <c r="P17">
+        <v>21</v>
+      </c>
+      <c r="Q17">
+        <v>6</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
         <v>8</v>
       </c>
-      <c r="P17">
-        <v>26</v>
-      </c>
-      <c r="Q17">
-        <v>11</v>
-      </c>
-      <c r="R17">
-        <v>3</v>
-      </c>
-      <c r="S17">
-        <v>3</v>
-      </c>
-      <c r="T17">
-        <v>11</v>
-      </c>
       <c r="U17">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="V17">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="W17">
-        <v>0.321</v>
+        <v>0.389</v>
       </c>
       <c r="X17">
         <v>0.333</v>
       </c>
       <c r="Y17">
-        <v>0.556</v>
+        <v>0.571</v>
       </c>
       <c r="Z17">
-        <v>8.699999999999999</v>
+        <v>11.1</v>
       </c>
       <c r="AA17">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="AB17">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="AC17">
         <v>0.5</v>
@@ -2396,76 +2387,76 @@
         <v>22</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="H18">
-        <v>1246</v>
+        <v>630</v>
       </c>
       <c r="I18">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="J18">
-        <v>440</v>
+        <v>192</v>
       </c>
       <c r="K18">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="L18">
-        <v>193</v>
+        <v>69</v>
       </c>
       <c r="M18">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="N18">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="O18">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="P18">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="Q18">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="R18">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="S18">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="T18">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="U18">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="V18">
-        <v>442</v>
+        <v>198</v>
       </c>
       <c r="W18">
-        <v>0.377</v>
+        <v>0.406</v>
       </c>
       <c r="X18">
-        <v>0.378</v>
+        <v>0.391</v>
       </c>
       <c r="Y18">
-        <v>0.822</v>
+        <v>0.833</v>
       </c>
       <c r="Z18">
-        <v>15.6</v>
+        <v>19.1</v>
       </c>
       <c r="AA18">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AC18">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AD18" t="s">
         <v>147</v>
@@ -2488,19 +2479,19 @@
         <v>25</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="H19">
-        <v>1560</v>
+        <v>19</v>
       </c>
       <c r="I19">
-        <v>176</v>
+        <v>2</v>
       </c>
       <c r="J19">
-        <v>400</v>
+        <v>9</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2509,52 +2500,52 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>233</v>
+        <v>5</v>
       </c>
       <c r="N19">
-        <v>353</v>
+        <v>8</v>
       </c>
       <c r="O19">
-        <v>184</v>
+        <v>3</v>
       </c>
       <c r="P19">
-        <v>464</v>
+        <v>8</v>
       </c>
       <c r="Q19">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>108</v>
+        <v>2</v>
       </c>
       <c r="U19">
-        <v>215</v>
+        <v>4</v>
       </c>
       <c r="V19">
-        <v>585</v>
+        <v>9</v>
       </c>
       <c r="W19">
-        <v>0.44</v>
+        <v>0.222</v>
       </c>
       <c r="Y19">
-        <v>0.66</v>
+        <v>0.625</v>
       </c>
       <c r="Z19">
-        <v>11.6</v>
+        <v>6.3</v>
       </c>
       <c r="AA19">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="AB19">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="AC19">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="s">
         <v>147</v>
@@ -2577,76 +2568,70 @@
         <v>22</v>
       </c>
       <c r="F20">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>341</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>5289</v>
+        <v>10</v>
       </c>
       <c r="I20">
-        <v>614</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>1473</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>774</v>
+        <v>1</v>
       </c>
       <c r="R20">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>275</v>
+        <v>2</v>
       </c>
       <c r="U20">
-        <v>528</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>1623</v>
+        <v>2</v>
       </c>
       <c r="W20">
-        <v>0.417</v>
-      </c>
-      <c r="X20">
-        <v>0.315</v>
-      </c>
-      <c r="Y20">
-        <v>0.788</v>
+        <v>1</v>
       </c>
       <c r="Z20">
-        <v>15.5</v>
+        <v>10</v>
       </c>
       <c r="AA20">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="AB20">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="AD20" t="s">
         <v>147</v>
@@ -2669,76 +2654,73 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>205</v>
+        <v>18</v>
       </c>
       <c r="H21">
-        <v>3318</v>
+        <v>65</v>
       </c>
       <c r="I21">
-        <v>453</v>
+        <v>8</v>
       </c>
       <c r="J21">
-        <v>985</v>
+        <v>14</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>243</v>
+        <v>6</v>
       </c>
       <c r="N21">
-        <v>369</v>
+        <v>16</v>
       </c>
       <c r="O21">
-        <v>261</v>
+        <v>6</v>
       </c>
       <c r="P21">
-        <v>827</v>
+        <v>20</v>
       </c>
       <c r="Q21">
-        <v>161</v>
+        <v>2</v>
       </c>
       <c r="R21">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="S21">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>209</v>
+        <v>7</v>
       </c>
       <c r="U21">
-        <v>464</v>
+        <v>15</v>
       </c>
       <c r="V21">
-        <v>1150</v>
+        <v>22</v>
       </c>
       <c r="W21">
-        <v>0.46</v>
-      </c>
-      <c r="X21">
+        <v>0.571</v>
+      </c>
+      <c r="Y21">
+        <v>0.375</v>
+      </c>
+      <c r="Z21">
+        <v>3.6</v>
+      </c>
+      <c r="AA21">
+        <v>1.2</v>
+      </c>
+      <c r="AB21">
+        <v>1.1</v>
+      </c>
+      <c r="AC21">
         <v>0.1</v>
-      </c>
-      <c r="Y21">
-        <v>0.659</v>
-      </c>
-      <c r="Z21">
-        <v>16.2</v>
-      </c>
-      <c r="AA21">
-        <v>5.6</v>
-      </c>
-      <c r="AB21">
-        <v>4</v>
-      </c>
-      <c r="AC21">
-        <v>0.8</v>
       </c>
       <c r="AD21" t="s">
         <v>147</v>
@@ -2761,76 +2743,76 @@
         <v>22</v>
       </c>
       <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>50</v>
+      </c>
+      <c r="H22">
+        <v>550</v>
+      </c>
+      <c r="I22">
+        <v>104</v>
+      </c>
+      <c r="J22">
+        <v>247</v>
+      </c>
+      <c r="K22">
+        <v>19</v>
+      </c>
+      <c r="L22">
+        <v>55</v>
+      </c>
+      <c r="M22">
+        <v>24</v>
+      </c>
+      <c r="N22">
+        <v>35</v>
+      </c>
+      <c r="O22">
+        <v>5</v>
+      </c>
+      <c r="P22">
+        <v>42</v>
+      </c>
+      <c r="Q22">
+        <v>52</v>
+      </c>
+      <c r="R22">
+        <v>13</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>35</v>
+      </c>
+      <c r="U22">
+        <v>58</v>
+      </c>
+      <c r="V22">
+        <v>251</v>
+      </c>
+      <c r="W22">
+        <v>0.421</v>
+      </c>
+      <c r="X22">
+        <v>0.345</v>
+      </c>
+      <c r="Y22">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="Z22">
         <v>11</v>
       </c>
-      <c r="G22">
-        <v>717</v>
-      </c>
-      <c r="H22">
-        <v>12405</v>
-      </c>
-      <c r="I22">
-        <v>2078</v>
-      </c>
-      <c r="J22">
-        <v>5077</v>
-      </c>
-      <c r="K22">
-        <v>817</v>
-      </c>
-      <c r="L22">
-        <v>2096</v>
-      </c>
-      <c r="M22">
-        <v>383</v>
-      </c>
-      <c r="N22">
-        <v>450</v>
-      </c>
-      <c r="O22">
-        <v>164</v>
-      </c>
-      <c r="P22">
-        <v>1223</v>
-      </c>
-      <c r="Q22">
-        <v>1112</v>
-      </c>
-      <c r="R22">
-        <v>470</v>
-      </c>
-      <c r="S22">
-        <v>58</v>
-      </c>
-      <c r="T22">
-        <v>569</v>
-      </c>
-      <c r="U22">
-        <v>927</v>
-      </c>
-      <c r="V22">
-        <v>5356</v>
-      </c>
-      <c r="W22">
-        <v>0.409</v>
-      </c>
-      <c r="X22">
-        <v>0.39</v>
-      </c>
-      <c r="Y22">
-        <v>0.851</v>
-      </c>
-      <c r="Z22">
-        <v>17.3</v>
-      </c>
       <c r="AA22">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="AB22">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="AC22">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AD22" t="s">
         <v>147</v>
@@ -2853,76 +2835,76 @@
         <v>26</v>
       </c>
       <c r="F23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>387</v>
+        <v>48</v>
       </c>
       <c r="H23">
-        <v>7572</v>
+        <v>1410</v>
       </c>
       <c r="I23">
-        <v>1194</v>
+        <v>237</v>
       </c>
       <c r="J23">
-        <v>2680</v>
+        <v>508</v>
       </c>
       <c r="K23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M23">
-        <v>843</v>
+        <v>154</v>
       </c>
       <c r="N23">
-        <v>1036</v>
+        <v>192</v>
       </c>
       <c r="O23">
-        <v>630</v>
+        <v>119</v>
       </c>
       <c r="P23">
-        <v>1655</v>
+        <v>361</v>
       </c>
       <c r="Q23">
-        <v>311</v>
+        <v>59</v>
       </c>
       <c r="R23">
-        <v>147</v>
+        <v>34</v>
       </c>
       <c r="S23">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="T23">
-        <v>467</v>
+        <v>93</v>
       </c>
       <c r="U23">
-        <v>775</v>
+        <v>138</v>
       </c>
       <c r="V23">
-        <v>3238</v>
+        <v>633</v>
       </c>
       <c r="W23">
-        <v>0.446</v>
+        <v>0.467</v>
       </c>
       <c r="X23">
-        <v>0.226</v>
+        <v>0.217</v>
       </c>
       <c r="Y23">
-        <v>0.8139999999999999</v>
+        <v>0.802</v>
       </c>
       <c r="Z23">
-        <v>19.6</v>
+        <v>29.4</v>
       </c>
       <c r="AA23">
-        <v>8.4</v>
+        <v>13.2</v>
       </c>
       <c r="AB23">
-        <v>4.3</v>
+        <v>7.5</v>
       </c>
       <c r="AC23">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AD23" t="s">
         <v>147</v>
@@ -2945,76 +2927,76 @@
         <v>22</v>
       </c>
       <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>77</v>
+      </c>
+      <c r="H24">
+        <v>1660</v>
+      </c>
+      <c r="I24">
+        <v>243</v>
+      </c>
+      <c r="J24">
+        <v>572</v>
+      </c>
+      <c r="K24">
+        <v>52</v>
+      </c>
+      <c r="L24">
+        <v>155</v>
+      </c>
+      <c r="M24">
+        <v>97</v>
+      </c>
+      <c r="N24">
+        <v>135</v>
+      </c>
+      <c r="O24">
+        <v>41</v>
+      </c>
+      <c r="P24">
+        <v>208</v>
+      </c>
+      <c r="Q24">
+        <v>140</v>
+      </c>
+      <c r="R24">
+        <v>86</v>
+      </c>
+      <c r="S24">
         <v>14</v>
       </c>
-      <c r="G24">
-        <v>858</v>
-      </c>
-      <c r="H24">
-        <v>27398</v>
-      </c>
-      <c r="I24">
-        <v>4604</v>
-      </c>
-      <c r="J24">
-        <v>11112</v>
-      </c>
-      <c r="K24">
-        <v>1252</v>
-      </c>
-      <c r="L24">
-        <v>3763</v>
-      </c>
-      <c r="M24">
-        <v>2516</v>
-      </c>
-      <c r="N24">
-        <v>3154</v>
-      </c>
-      <c r="O24">
-        <v>674</v>
-      </c>
-      <c r="P24">
-        <v>3328</v>
-      </c>
-      <c r="Q24">
-        <v>2634</v>
-      </c>
-      <c r="R24">
-        <v>1109</v>
-      </c>
-      <c r="S24">
-        <v>317</v>
-      </c>
       <c r="T24">
-        <v>2141</v>
+        <v>130</v>
       </c>
       <c r="U24">
-        <v>2043</v>
+        <v>166</v>
       </c>
       <c r="V24">
-        <v>12976</v>
+        <v>635</v>
       </c>
       <c r="W24">
-        <v>0.414</v>
+        <v>0.425</v>
       </c>
       <c r="X24">
-        <v>0.333</v>
+        <v>0.335</v>
       </c>
       <c r="Y24">
-        <v>0.798</v>
+        <v>0.719</v>
       </c>
       <c r="Z24">
-        <v>31.9</v>
+        <v>21.6</v>
       </c>
       <c r="AA24">
-        <v>15.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AB24">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="AC24">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="AD24" t="s">
         <v>147</v>
@@ -3037,76 +3019,76 @@
         <v>20</v>
       </c>
       <c r="F25">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>344</v>
+        <v>78</v>
       </c>
       <c r="H25">
-        <v>5930</v>
+        <v>1313</v>
       </c>
       <c r="I25">
-        <v>770</v>
+        <v>146</v>
       </c>
       <c r="J25">
-        <v>1872</v>
+        <v>390</v>
       </c>
       <c r="K25">
-        <v>274</v>
+        <v>41</v>
       </c>
       <c r="L25">
-        <v>815</v>
+        <v>127</v>
       </c>
       <c r="M25">
-        <v>307</v>
+        <v>64</v>
       </c>
       <c r="N25">
-        <v>389</v>
+        <v>87</v>
       </c>
       <c r="O25">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="P25">
-        <v>769</v>
+        <v>178</v>
       </c>
       <c r="Q25">
-        <v>304</v>
+        <v>64</v>
       </c>
       <c r="R25">
-        <v>198</v>
+        <v>43</v>
       </c>
       <c r="S25">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="T25">
-        <v>349</v>
+        <v>93</v>
       </c>
       <c r="U25">
-        <v>598</v>
+        <v>134</v>
       </c>
       <c r="V25">
-        <v>2121</v>
+        <v>397</v>
       </c>
       <c r="W25">
-        <v>0.411</v>
+        <v>0.374</v>
       </c>
       <c r="X25">
-        <v>0.336</v>
+        <v>0.323</v>
       </c>
       <c r="Y25">
-        <v>0.789</v>
+        <v>0.736</v>
       </c>
       <c r="Z25">
-        <v>17.2</v>
+        <v>16.8</v>
       </c>
       <c r="AA25">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="AB25">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AC25">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AD25" t="s">
         <v>147</v>
@@ -3218,76 +3200,76 @@
         <v>23</v>
       </c>
       <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>33</v>
+      </c>
+      <c r="H27">
+        <v>241</v>
+      </c>
+      <c r="I27">
+        <v>37</v>
+      </c>
+      <c r="J27">
+        <v>99</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>16</v>
+      </c>
+      <c r="N27">
+        <v>29</v>
+      </c>
+      <c r="O27">
+        <v>13</v>
+      </c>
+      <c r="P27">
+        <v>41</v>
+      </c>
+      <c r="Q27">
         <v>4</v>
       </c>
-      <c r="G27">
-        <v>133</v>
-      </c>
-      <c r="H27">
-        <v>1253</v>
-      </c>
-      <c r="I27">
-        <v>172</v>
-      </c>
-      <c r="J27">
-        <v>440</v>
-      </c>
-      <c r="K27">
-        <v>11</v>
-      </c>
-      <c r="L27">
-        <v>38</v>
-      </c>
-      <c r="M27">
-        <v>38</v>
-      </c>
-      <c r="N27">
-        <v>62</v>
-      </c>
-      <c r="O27">
-        <v>54</v>
-      </c>
-      <c r="P27">
-        <v>199</v>
-      </c>
-      <c r="Q27">
-        <v>39</v>
-      </c>
       <c r="R27">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="S27">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="T27">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="U27">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="V27">
-        <v>393</v>
+        <v>90</v>
       </c>
       <c r="W27">
-        <v>0.391</v>
+        <v>0.374</v>
       </c>
       <c r="X27">
-        <v>0.289</v>
+        <v>0</v>
       </c>
       <c r="Y27">
-        <v>0.613</v>
+        <v>0.552</v>
       </c>
       <c r="Z27">
-        <v>9.4</v>
+        <v>7.3</v>
       </c>
       <c r="AA27">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AB27">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AC27">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AD27" t="s">
         <v>147</v>
@@ -3310,76 +3292,73 @@
         <v>28</v>
       </c>
       <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>9</v>
+      </c>
+      <c r="H28">
+        <v>20</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+      <c r="O28">
+        <v>2</v>
+      </c>
+      <c r="P28">
+        <v>8</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
         <v>3</v>
       </c>
-      <c r="G28">
-        <v>98</v>
-      </c>
-      <c r="H28">
-        <v>1220</v>
-      </c>
-      <c r="I28">
-        <v>148</v>
-      </c>
-      <c r="J28">
-        <v>323</v>
-      </c>
-      <c r="K28">
+      <c r="T28">
         <v>2</v>
       </c>
-      <c r="L28">
-        <v>3</v>
-      </c>
-      <c r="M28">
-        <v>47</v>
-      </c>
-      <c r="N28">
-        <v>97</v>
-      </c>
-      <c r="O28">
-        <v>130</v>
-      </c>
-      <c r="P28">
-        <v>319</v>
-      </c>
-      <c r="Q28">
-        <v>48</v>
-      </c>
-      <c r="R28">
-        <v>27</v>
-      </c>
-      <c r="S28">
-        <v>42</v>
-      </c>
-      <c r="T28">
-        <v>85</v>
-      </c>
       <c r="U28">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="V28">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="W28">
-        <v>0.458</v>
-      </c>
-      <c r="X28">
-        <v>0.667</v>
+        <v>0</v>
       </c>
       <c r="Y28">
-        <v>0.485</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>12.4</v>
+        <v>2.2</v>
       </c>
       <c r="AA28">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AB28">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="AC28">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AD28" t="s">
         <v>147</v>
@@ -3402,76 +3381,76 @@
         <v>25</v>
       </c>
       <c r="F29">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>453</v>
+        <v>70</v>
       </c>
       <c r="H29">
-        <v>5335</v>
+        <v>641</v>
       </c>
       <c r="I29">
-        <v>381</v>
+        <v>55</v>
       </c>
       <c r="J29">
-        <v>834</v>
+        <v>113</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="N29">
-        <v>402</v>
+        <v>37</v>
       </c>
       <c r="O29">
-        <v>559</v>
+        <v>74</v>
       </c>
       <c r="P29">
-        <v>1157</v>
+        <v>152</v>
       </c>
       <c r="Q29">
-        <v>181</v>
+        <v>24</v>
       </c>
       <c r="R29">
-        <v>116</v>
+        <v>8</v>
       </c>
       <c r="S29">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="T29">
-        <v>206</v>
+        <v>27</v>
       </c>
       <c r="U29">
-        <v>866</v>
+        <v>111</v>
       </c>
       <c r="V29">
-        <v>975</v>
+        <v>137</v>
       </c>
       <c r="W29">
-        <v>0.457</v>
+        <v>0.487</v>
       </c>
       <c r="X29">
-        <v>0.063</v>
+        <v>1</v>
       </c>
       <c r="Y29">
-        <v>0.527</v>
+        <v>0.703</v>
       </c>
       <c r="Z29">
-        <v>11.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA29">
+        <v>2</v>
+      </c>
+      <c r="AB29">
         <v>2.2</v>
       </c>
-      <c r="AB29">
-        <v>2.6</v>
-      </c>
       <c r="AC29">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AD29" t="s">
         <v>147</v>
@@ -3494,76 +3473,76 @@
         <v>22</v>
       </c>
       <c r="F30">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>680</v>
+        <v>74</v>
       </c>
       <c r="H30">
-        <v>14621</v>
+        <v>1095</v>
       </c>
       <c r="I30">
-        <v>1763</v>
+        <v>122</v>
       </c>
       <c r="J30">
-        <v>3675</v>
+        <v>271</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M30">
-        <v>1391</v>
+        <v>95</v>
       </c>
       <c r="N30">
-        <v>2176</v>
+        <v>145</v>
       </c>
       <c r="O30">
-        <v>1418</v>
+        <v>103</v>
       </c>
       <c r="P30">
-        <v>4408</v>
+        <v>295</v>
       </c>
       <c r="Q30">
-        <v>386</v>
+        <v>27</v>
       </c>
       <c r="R30">
-        <v>224</v>
+        <v>18</v>
       </c>
       <c r="S30">
-        <v>603</v>
+        <v>78</v>
       </c>
       <c r="T30">
-        <v>998</v>
+        <v>61</v>
       </c>
       <c r="U30">
-        <v>1792</v>
+        <v>139</v>
       </c>
       <c r="V30">
-        <v>4917</v>
+        <v>339</v>
       </c>
       <c r="W30">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="X30">
         <v>0</v>
       </c>
       <c r="Y30">
-        <v>0.639</v>
+        <v>0.655</v>
       </c>
       <c r="Z30">
-        <v>21.5</v>
+        <v>14.8</v>
       </c>
       <c r="AA30">
-        <v>7.2</v>
+        <v>4.6</v>
       </c>
       <c r="AB30">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="AC30">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AD30" t="s">
         <v>147</v>
@@ -3586,73 +3565,73 @@
         <v>23</v>
       </c>
       <c r="F31">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>757</v>
+        <v>68</v>
       </c>
       <c r="H31">
-        <v>23134</v>
+        <v>2272</v>
       </c>
       <c r="I31">
-        <v>3875</v>
+        <v>346</v>
       </c>
       <c r="J31">
-        <v>8031</v>
+        <v>777</v>
       </c>
       <c r="K31">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="M31">
-        <v>1509</v>
+        <v>121</v>
       </c>
       <c r="N31">
-        <v>2398</v>
+        <v>192</v>
       </c>
       <c r="O31">
-        <v>1312</v>
+        <v>137</v>
       </c>
       <c r="P31">
-        <v>5159</v>
+        <v>502</v>
       </c>
       <c r="Q31">
-        <v>1439</v>
+        <v>131</v>
       </c>
       <c r="R31">
-        <v>893</v>
+        <v>78</v>
       </c>
       <c r="S31">
-        <v>864</v>
+        <v>113</v>
       </c>
       <c r="T31">
-        <v>1318</v>
+        <v>138</v>
       </c>
       <c r="U31">
-        <v>2498</v>
+        <v>281</v>
       </c>
       <c r="V31">
-        <v>9325</v>
+        <v>814</v>
       </c>
       <c r="W31">
-        <v>0.483</v>
+        <v>0.445</v>
       </c>
       <c r="X31">
-        <v>0.234</v>
+        <v>0.091</v>
       </c>
       <c r="Y31">
-        <v>0.629</v>
+        <v>0.63</v>
       </c>
       <c r="Z31">
-        <v>30.6</v>
+        <v>33.4</v>
       </c>
       <c r="AA31">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="AB31">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="AC31">
         <v>1.9</v>
@@ -3678,76 +3657,76 @@
         <v>23</v>
       </c>
       <c r="F32">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>643</v>
+        <v>78</v>
       </c>
       <c r="H32">
-        <v>19641</v>
+        <v>1522</v>
       </c>
       <c r="I32">
-        <v>2931</v>
+        <v>189</v>
       </c>
       <c r="J32">
-        <v>6535</v>
+        <v>439</v>
       </c>
       <c r="K32">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="L32">
-        <v>254</v>
+        <v>67</v>
       </c>
       <c r="M32">
-        <v>1839</v>
+        <v>67</v>
       </c>
       <c r="N32">
-        <v>2485</v>
+        <v>91</v>
       </c>
       <c r="O32">
-        <v>804</v>
+        <v>72</v>
       </c>
       <c r="P32">
-        <v>2863</v>
+        <v>249</v>
       </c>
       <c r="Q32">
-        <v>1049</v>
+        <v>63</v>
       </c>
       <c r="R32">
-        <v>441</v>
+        <v>39</v>
       </c>
       <c r="S32">
-        <v>230</v>
+        <v>20</v>
       </c>
       <c r="T32">
-        <v>1032</v>
+        <v>53</v>
       </c>
       <c r="U32">
-        <v>1432</v>
+        <v>146</v>
       </c>
       <c r="V32">
-        <v>7767</v>
+        <v>463</v>
       </c>
       <c r="W32">
-        <v>0.449</v>
+        <v>0.431</v>
       </c>
       <c r="X32">
-        <v>0.26</v>
+        <v>0.269</v>
       </c>
       <c r="Y32">
-        <v>0.74</v>
+        <v>0.736</v>
       </c>
       <c r="Z32">
-        <v>30.5</v>
+        <v>19.5</v>
       </c>
       <c r="AA32">
-        <v>12.1</v>
+        <v>5.9</v>
       </c>
       <c r="AB32">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="AC32">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="AD32" t="s">
         <v>147</v>
@@ -3951,76 +3930,76 @@
         <v>21</v>
       </c>
       <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
         <v>7</v>
       </c>
-      <c r="G35">
-        <v>263</v>
-      </c>
       <c r="H35">
-        <v>3340</v>
+        <v>39</v>
       </c>
       <c r="I35">
-        <v>590</v>
+        <v>12</v>
       </c>
       <c r="J35">
-        <v>1311</v>
+        <v>25</v>
       </c>
       <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>7</v>
+      </c>
+      <c r="N35">
+        <v>12</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>9</v>
+      </c>
+      <c r="Q35">
         <v>2</v>
       </c>
-      <c r="L35">
-        <v>13</v>
-      </c>
-      <c r="M35">
-        <v>208</v>
-      </c>
-      <c r="N35">
-        <v>281</v>
-      </c>
-      <c r="O35">
-        <v>335</v>
-      </c>
-      <c r="P35">
-        <v>744</v>
-      </c>
-      <c r="Q35">
-        <v>136</v>
-      </c>
       <c r="R35">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="S35">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="T35">
-        <v>159</v>
+        <v>3</v>
       </c>
       <c r="U35">
-        <v>518</v>
+        <v>9</v>
       </c>
       <c r="V35">
-        <v>1390</v>
+        <v>32</v>
       </c>
       <c r="W35">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="X35">
-        <v>0.154</v>
+        <v>1</v>
       </c>
       <c r="Y35">
-        <v>0.74</v>
+        <v>0.583</v>
       </c>
       <c r="Z35">
-        <v>12.7</v>
+        <v>5.6</v>
       </c>
       <c r="AA35">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="AB35">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="AC35">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AD35" t="s">
         <v>147</v>
@@ -4043,76 +4022,76 @@
         <v>21</v>
       </c>
       <c r="F36">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>436</v>
+        <v>59</v>
       </c>
       <c r="H36">
-        <v>8758</v>
+        <v>1166</v>
       </c>
       <c r="I36">
-        <v>1253</v>
+        <v>173</v>
       </c>
       <c r="J36">
-        <v>2731</v>
+        <v>391</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>753</v>
+        <v>100</v>
       </c>
       <c r="N36">
-        <v>1069</v>
+        <v>126</v>
       </c>
       <c r="O36">
-        <v>865</v>
+        <v>106</v>
       </c>
       <c r="P36">
-        <v>2302</v>
+        <v>280</v>
       </c>
       <c r="Q36">
-        <v>223</v>
+        <v>16</v>
       </c>
       <c r="R36">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="S36">
-        <v>444</v>
+        <v>53</v>
       </c>
       <c r="T36">
-        <v>535</v>
+        <v>80</v>
       </c>
       <c r="U36">
-        <v>1264</v>
+        <v>156</v>
       </c>
       <c r="V36">
-        <v>3262</v>
+        <v>446</v>
       </c>
       <c r="W36">
-        <v>0.459</v>
+        <v>0.442</v>
       </c>
       <c r="X36">
-        <v>0.231</v>
+        <v>0</v>
       </c>
       <c r="Y36">
-        <v>0.704</v>
+        <v>0.794</v>
       </c>
       <c r="Z36">
-        <v>20.1</v>
+        <v>19.8</v>
       </c>
       <c r="AA36">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AB36">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="AC36">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AD36" t="s">
         <v>147</v>
@@ -4135,76 +4114,76 @@
         <v>19</v>
       </c>
       <c r="F37">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>446</v>
+        <v>81</v>
       </c>
       <c r="H37">
-        <v>11730</v>
+        <v>2133</v>
       </c>
       <c r="I37">
-        <v>1874</v>
+        <v>318</v>
       </c>
       <c r="J37">
-        <v>3973</v>
+        <v>630</v>
       </c>
       <c r="K37">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="M37">
-        <v>737</v>
+        <v>124</v>
       </c>
       <c r="N37">
-        <v>1250</v>
+        <v>238</v>
       </c>
       <c r="O37">
-        <v>575</v>
+        <v>127</v>
       </c>
       <c r="P37">
-        <v>2190</v>
+        <v>477</v>
       </c>
       <c r="Q37">
-        <v>840</v>
+        <v>99</v>
       </c>
       <c r="R37">
-        <v>384</v>
+        <v>51</v>
       </c>
       <c r="S37">
-        <v>495</v>
+        <v>125</v>
       </c>
       <c r="T37">
-        <v>892</v>
+        <v>147</v>
       </c>
       <c r="U37">
-        <v>1023</v>
+        <v>191</v>
       </c>
       <c r="V37">
-        <v>4507</v>
+        <v>761</v>
       </c>
       <c r="W37">
-        <v>0.472</v>
+        <v>0.505</v>
       </c>
       <c r="X37">
-        <v>0.168</v>
+        <v>0.053</v>
       </c>
       <c r="Y37">
-        <v>0.59</v>
+        <v>0.521</v>
       </c>
       <c r="Z37">
         <v>26.3</v>
       </c>
       <c r="AA37">
-        <v>10.1</v>
+        <v>9.4</v>
       </c>
       <c r="AB37">
-        <v>4.9</v>
+        <v>5.9</v>
       </c>
       <c r="AC37">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="AD37" t="s">
         <v>147</v>
@@ -4227,76 +4206,76 @@
         <v>20</v>
       </c>
       <c r="F38">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>1032</v>
+        <v>82</v>
       </c>
       <c r="H38">
-        <v>27812</v>
+        <v>2390</v>
       </c>
       <c r="I38">
-        <v>4016</v>
+        <v>368</v>
       </c>
       <c r="J38">
-        <v>8747</v>
+        <v>845</v>
       </c>
       <c r="K38">
-        <v>1590</v>
+        <v>148</v>
       </c>
       <c r="L38">
-        <v>3910</v>
+        <v>364</v>
       </c>
       <c r="M38">
-        <v>1351</v>
+        <v>91</v>
       </c>
       <c r="N38">
-        <v>1757</v>
+        <v>128</v>
       </c>
       <c r="O38">
-        <v>632</v>
+        <v>66</v>
       </c>
       <c r="P38">
-        <v>4376</v>
+        <v>327</v>
       </c>
       <c r="Q38">
-        <v>2666</v>
+        <v>140</v>
       </c>
       <c r="R38">
-        <v>573</v>
+        <v>51</v>
       </c>
       <c r="S38">
-        <v>229</v>
+        <v>19</v>
       </c>
       <c r="T38">
-        <v>1561</v>
+        <v>97</v>
       </c>
       <c r="U38">
-        <v>2043</v>
+        <v>200</v>
       </c>
       <c r="V38">
-        <v>10973</v>
+        <v>975</v>
       </c>
       <c r="W38">
-        <v>0.459</v>
+        <v>0.436</v>
       </c>
       <c r="X38">
         <v>0.407</v>
       </c>
       <c r="Y38">
-        <v>0.769</v>
+        <v>0.711</v>
       </c>
       <c r="Z38">
-        <v>26.9</v>
+        <v>29.1</v>
       </c>
       <c r="AA38">
-        <v>10.6</v>
+        <v>11.9</v>
       </c>
       <c r="AB38">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="AC38">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="AD38" t="s">
         <v>147</v>
@@ -4319,76 +4298,76 @@
         <v>22</v>
       </c>
       <c r="F39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="H39">
-        <v>1392</v>
+        <v>135</v>
       </c>
       <c r="I39">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="J39">
-        <v>323</v>
+        <v>30</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>11</v>
+      </c>
+      <c r="N39">
+        <v>26</v>
+      </c>
+      <c r="O39">
+        <v>12</v>
+      </c>
+      <c r="P39">
+        <v>42</v>
+      </c>
+      <c r="Q39">
         <v>3</v>
       </c>
-      <c r="M39">
-        <v>70</v>
-      </c>
-      <c r="N39">
-        <v>118</v>
-      </c>
-      <c r="O39">
-        <v>126</v>
-      </c>
-      <c r="P39">
-        <v>395</v>
-      </c>
-      <c r="Q39">
-        <v>38</v>
-      </c>
       <c r="R39">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="S39">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="T39">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="U39">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="V39">
-        <v>386</v>
+        <v>35</v>
       </c>
       <c r="W39">
-        <v>0.489</v>
+        <v>0.4</v>
       </c>
       <c r="X39">
         <v>0</v>
       </c>
       <c r="Y39">
-        <v>0.593</v>
+        <v>0.423</v>
       </c>
       <c r="Z39">
-        <v>9.6</v>
+        <v>5.6</v>
       </c>
       <c r="AA39">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="AB39">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="AC39">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AD39" t="s">
         <v>147</v>
@@ -4411,76 +4390,76 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="H40">
-        <v>2360</v>
+        <v>989</v>
       </c>
       <c r="I40">
-        <v>292</v>
+        <v>123</v>
       </c>
       <c r="J40">
-        <v>661</v>
+        <v>277</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="M40">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="N40">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="O40">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="P40">
-        <v>442</v>
+        <v>174</v>
       </c>
       <c r="Q40">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="R40">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="S40">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="T40">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="U40">
-        <v>337</v>
+        <v>163</v>
       </c>
       <c r="V40">
-        <v>715</v>
+        <v>319</v>
       </c>
       <c r="W40">
-        <v>0.442</v>
+        <v>0.444</v>
       </c>
       <c r="X40">
-        <v>0.063</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>0.783</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="Z40">
-        <v>15.2</v>
+        <v>13.5</v>
       </c>
       <c r="AA40">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="AB40">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="AC40">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AD40" t="s">
         <v>147</v>
@@ -4503,76 +4482,73 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="H41">
-        <v>858</v>
+        <v>10</v>
       </c>
       <c r="I41">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>199</v>
+        <v>4</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="N41">
-        <v>125</v>
+        <v>2</v>
       </c>
       <c r="O41">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="P41">
-        <v>225</v>
+        <v>2</v>
       </c>
       <c r="Q41">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="S41">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="T41">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="U41">
-        <v>146</v>
+        <v>3</v>
       </c>
       <c r="V41">
-        <v>262</v>
+        <v>4</v>
       </c>
       <c r="W41">
-        <v>0.427</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y41">
-        <v>0.736</v>
+        <v>1</v>
       </c>
       <c r="Z41">
-        <v>12.4</v>
+        <v>3.3</v>
       </c>
       <c r="AA41">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="AB41">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="AC41">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD41" t="s">
         <v>147</v>
@@ -4595,76 +4571,76 @@
         <v>25</v>
       </c>
       <c r="F42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>306</v>
+        <v>42</v>
       </c>
       <c r="H42">
-        <v>5820</v>
+        <v>469</v>
       </c>
       <c r="I42">
-        <v>1121</v>
+        <v>66</v>
       </c>
       <c r="J42">
-        <v>2366</v>
+        <v>136</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>32</v>
+      </c>
+      <c r="N42">
+        <v>43</v>
+      </c>
+      <c r="O42">
+        <v>29</v>
+      </c>
+      <c r="P42">
+        <v>92</v>
+      </c>
+      <c r="Q42">
+        <v>24</v>
+      </c>
+      <c r="R42">
         <v>9</v>
       </c>
-      <c r="M42">
-        <v>379</v>
-      </c>
-      <c r="N42">
-        <v>482</v>
-      </c>
-      <c r="O42">
-        <v>379</v>
-      </c>
-      <c r="P42">
-        <v>936</v>
-      </c>
-      <c r="Q42">
-        <v>298</v>
-      </c>
-      <c r="R42">
-        <v>133</v>
-      </c>
       <c r="S42">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="T42">
-        <v>320</v>
+        <v>27</v>
       </c>
       <c r="U42">
-        <v>596</v>
+        <v>60</v>
       </c>
       <c r="V42">
-        <v>2622</v>
+        <v>164</v>
       </c>
       <c r="W42">
-        <v>0.474</v>
+        <v>0.485</v>
       </c>
       <c r="X42">
-        <v>0.111</v>
+        <v>0</v>
       </c>
       <c r="Y42">
-        <v>0.786</v>
+        <v>0.744</v>
       </c>
       <c r="Z42">
-        <v>19</v>
+        <v>11.2</v>
       </c>
       <c r="AA42">
-        <v>8.6</v>
+        <v>3.9</v>
       </c>
       <c r="AB42">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="AC42">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AD42" t="s">
         <v>147</v>
@@ -4687,76 +4663,76 @@
         <v>24</v>
       </c>
       <c r="F43">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>619</v>
+        <v>40</v>
       </c>
       <c r="H43">
-        <v>11213</v>
+        <v>431</v>
       </c>
       <c r="I43">
-        <v>1204</v>
+        <v>58</v>
       </c>
       <c r="J43">
-        <v>2505</v>
+        <v>111</v>
       </c>
       <c r="K43">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="L43">
-        <v>354</v>
+        <v>3</v>
       </c>
       <c r="M43">
-        <v>534</v>
+        <v>14</v>
       </c>
       <c r="N43">
-        <v>796</v>
+        <v>33</v>
       </c>
       <c r="O43">
-        <v>897</v>
+        <v>41</v>
       </c>
       <c r="P43">
-        <v>2307</v>
+        <v>95</v>
       </c>
       <c r="Q43">
-        <v>493</v>
+        <v>27</v>
       </c>
       <c r="R43">
-        <v>446</v>
+        <v>13</v>
       </c>
       <c r="S43">
-        <v>231</v>
+        <v>8</v>
       </c>
       <c r="T43">
-        <v>402</v>
+        <v>17</v>
       </c>
       <c r="U43">
-        <v>1378</v>
+        <v>48</v>
       </c>
       <c r="V43">
-        <v>3052</v>
+        <v>131</v>
       </c>
       <c r="W43">
-        <v>0.481</v>
+        <v>0.523</v>
       </c>
       <c r="X43">
-        <v>0.311</v>
+        <v>0.333</v>
       </c>
       <c r="Y43">
-        <v>0.671</v>
+        <v>0.424</v>
       </c>
       <c r="Z43">
-        <v>18.1</v>
+        <v>10.8</v>
       </c>
       <c r="AA43">
-        <v>4.9</v>
+        <v>3.3</v>
       </c>
       <c r="AB43">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="AC43">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AD43" t="s">
         <v>147</v>
@@ -4779,76 +4755,76 @@
         <v>26</v>
       </c>
       <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>27</v>
+      </c>
+      <c r="H44">
+        <v>184</v>
+      </c>
+      <c r="I44">
+        <v>21</v>
+      </c>
+      <c r="J44">
+        <v>55</v>
+      </c>
+      <c r="K44">
+        <v>4</v>
+      </c>
+      <c r="L44">
+        <v>9</v>
+      </c>
+      <c r="M44">
         <v>8</v>
       </c>
-      <c r="G44">
-        <v>380</v>
-      </c>
-      <c r="H44">
-        <v>7645</v>
-      </c>
-      <c r="I44">
-        <v>782</v>
-      </c>
-      <c r="J44">
-        <v>1753</v>
-      </c>
-      <c r="K44">
-        <v>85</v>
-      </c>
-      <c r="L44">
-        <v>249</v>
-      </c>
-      <c r="M44">
-        <v>281</v>
-      </c>
       <c r="N44">
-        <v>361</v>
+        <v>16</v>
       </c>
       <c r="O44">
-        <v>403</v>
+        <v>13</v>
       </c>
       <c r="P44">
-        <v>1114</v>
+        <v>35</v>
       </c>
       <c r="Q44">
-        <v>342</v>
+        <v>6</v>
       </c>
       <c r="R44">
-        <v>204</v>
+        <v>2</v>
       </c>
       <c r="S44">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="T44">
-        <v>289</v>
+        <v>7</v>
       </c>
       <c r="U44">
-        <v>695</v>
+        <v>18</v>
       </c>
       <c r="V44">
-        <v>1930</v>
+        <v>54</v>
       </c>
       <c r="W44">
-        <v>0.446</v>
+        <v>0.382</v>
       </c>
       <c r="X44">
-        <v>0.341</v>
+        <v>0.444</v>
       </c>
       <c r="Y44">
-        <v>0.778</v>
+        <v>0.5</v>
       </c>
       <c r="Z44">
-        <v>20.1</v>
+        <v>6.8</v>
       </c>
       <c r="AA44">
-        <v>5.1</v>
+        <v>2</v>
       </c>
       <c r="AB44">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="AC44">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="AD44" t="s">
         <v>147</v>
@@ -4871,19 +4847,19 @@
         <v>19</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="H45">
-        <v>587</v>
+        <v>221</v>
       </c>
       <c r="I45">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J45">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -4892,49 +4868,49 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="N45">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="O45">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="P45">
-        <v>196</v>
+        <v>67</v>
       </c>
       <c r="Q45">
+        <v>2</v>
+      </c>
+      <c r="R45">
+        <v>7</v>
+      </c>
+      <c r="S45">
+        <v>10</v>
+      </c>
+      <c r="T45">
         <v>11</v>
       </c>
-      <c r="R45">
-        <v>16</v>
-      </c>
-      <c r="S45">
-        <v>15</v>
-      </c>
-      <c r="T45">
-        <v>30</v>
-      </c>
       <c r="U45">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="V45">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="W45">
-        <v>0.495</v>
+        <v>0.486</v>
       </c>
       <c r="Y45">
-        <v>0.659</v>
+        <v>0.75</v>
       </c>
       <c r="Z45">
-        <v>6.3</v>
+        <v>7.4</v>
       </c>
       <c r="AA45">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AB45">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AC45">
         <v>0.1</v>
@@ -5043,19 +5019,19 @@
         <v>26</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H47">
-        <v>863</v>
+        <v>851</v>
       </c>
       <c r="I47">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J47">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K47">
         <v>55</v>
@@ -5064,22 +5040,22 @@
         <v>139</v>
       </c>
       <c r="M47">
+        <v>28</v>
+      </c>
+      <c r="N47">
         <v>31</v>
-      </c>
-      <c r="N47">
-        <v>35</v>
       </c>
       <c r="O47">
         <v>10</v>
       </c>
       <c r="P47">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q47">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R47">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S47">
         <v>2</v>
@@ -5091,22 +5067,22 @@
         <v>57</v>
       </c>
       <c r="V47">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="W47">
-        <v>0.415</v>
+        <v>0.414</v>
       </c>
       <c r="X47">
         <v>0.396</v>
       </c>
       <c r="Y47">
-        <v>0.886</v>
+        <v>0.903</v>
       </c>
       <c r="Z47">
-        <v>15.4</v>
+        <v>16.1</v>
       </c>
       <c r="AA47">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AB47">
         <v>1.2</v>
@@ -5135,76 +5111,76 @@
         <v>23</v>
       </c>
       <c r="F48">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>711</v>
+        <v>80</v>
       </c>
       <c r="H48">
-        <v>19366</v>
+        <v>1809</v>
       </c>
       <c r="I48">
-        <v>2747</v>
+        <v>290</v>
       </c>
       <c r="J48">
-        <v>6567</v>
+        <v>673</v>
       </c>
       <c r="K48">
-        <v>1009</v>
+        <v>63</v>
       </c>
       <c r="L48">
-        <v>2702</v>
+        <v>165</v>
       </c>
       <c r="M48">
-        <v>1125</v>
+        <v>104</v>
       </c>
       <c r="N48">
-        <v>1456</v>
+        <v>145</v>
       </c>
       <c r="O48">
-        <v>569</v>
+        <v>112</v>
       </c>
       <c r="P48">
-        <v>2483</v>
+        <v>259</v>
       </c>
       <c r="Q48">
-        <v>1090</v>
+        <v>105</v>
       </c>
       <c r="R48">
-        <v>639</v>
+        <v>63</v>
       </c>
       <c r="S48">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="T48">
-        <v>716</v>
+        <v>78</v>
       </c>
       <c r="U48">
-        <v>1606</v>
+        <v>164</v>
       </c>
       <c r="V48">
-        <v>7628</v>
+        <v>747</v>
       </c>
       <c r="W48">
-        <v>0.418</v>
+        <v>0.431</v>
       </c>
       <c r="X48">
-        <v>0.373</v>
+        <v>0.382</v>
       </c>
       <c r="Y48">
-        <v>0.773</v>
+        <v>0.717</v>
       </c>
       <c r="Z48">
-        <v>27.2</v>
+        <v>22.6</v>
       </c>
       <c r="AA48">
-        <v>10.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AB48">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="AC48">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AD48" t="s">
         <v>147</v>
@@ -5319,73 +5295,73 @@
         <v>22</v>
       </c>
       <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>26</v>
+      </c>
+      <c r="H50">
+        <v>169</v>
+      </c>
+      <c r="I50">
+        <v>17</v>
+      </c>
+      <c r="J50">
+        <v>54</v>
+      </c>
+      <c r="K50">
         <v>3</v>
       </c>
-      <c r="G50">
-        <v>61</v>
-      </c>
-      <c r="H50">
-        <v>446</v>
-      </c>
-      <c r="I50">
-        <v>59</v>
-      </c>
-      <c r="J50">
-        <v>176</v>
-      </c>
-      <c r="K50">
+      <c r="L50">
         <v>11</v>
       </c>
-      <c r="L50">
-        <v>44</v>
-      </c>
       <c r="M50">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="N50">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="O50">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P50">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="Q50">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="R50">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="S50">
         <v>2</v>
       </c>
       <c r="T50">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="U50">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="V50">
-        <v>195</v>
+        <v>59</v>
       </c>
       <c r="W50">
-        <v>0.335</v>
+        <v>0.315</v>
       </c>
       <c r="X50">
-        <v>0.25</v>
+        <v>0.273</v>
       </c>
       <c r="Y50">
-        <v>0.795</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="Z50">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="AA50">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="AB50">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AC50">
         <v>0.2</v>
@@ -5411,76 +5387,73 @@
         <v>21</v>
       </c>
       <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>33</v>
+      </c>
+      <c r="H51">
+        <v>270</v>
+      </c>
+      <c r="I51">
+        <v>12</v>
+      </c>
+      <c r="J51">
+        <v>35</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>3</v>
+      </c>
+      <c r="N51">
+        <v>11</v>
+      </c>
+      <c r="O51">
+        <v>29</v>
+      </c>
+      <c r="P51">
+        <v>71</v>
+      </c>
+      <c r="Q51">
+        <v>2</v>
+      </c>
+      <c r="R51">
+        <v>3</v>
+      </c>
+      <c r="S51">
+        <v>30</v>
+      </c>
+      <c r="T51">
         <v>13</v>
       </c>
-      <c r="G51">
-        <v>592</v>
-      </c>
-      <c r="H51">
-        <v>11733</v>
-      </c>
-      <c r="I51">
-        <v>896</v>
-      </c>
-      <c r="J51">
-        <v>1624</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>3</v>
-      </c>
-      <c r="M51">
-        <v>501</v>
-      </c>
-      <c r="N51">
-        <v>900</v>
-      </c>
-      <c r="O51">
-        <v>1112</v>
-      </c>
-      <c r="P51">
-        <v>3665</v>
-      </c>
-      <c r="Q51">
-        <v>256</v>
-      </c>
-      <c r="R51">
-        <v>157</v>
-      </c>
-      <c r="S51">
-        <v>836</v>
-      </c>
-      <c r="T51">
-        <v>574</v>
-      </c>
       <c r="U51">
-        <v>1604</v>
+        <v>56</v>
       </c>
       <c r="V51">
-        <v>2293</v>
+        <v>27</v>
       </c>
       <c r="W51">
-        <v>0.552</v>
-      </c>
-      <c r="X51">
-        <v>0</v>
+        <v>0.343</v>
       </c>
       <c r="Y51">
-        <v>0.5570000000000001</v>
+        <v>0.273</v>
       </c>
       <c r="Z51">
-        <v>19.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA51">
-        <v>3.9</v>
+        <v>0.8</v>
       </c>
       <c r="AB51">
-        <v>6.2</v>
+        <v>2.2</v>
       </c>
       <c r="AC51">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AD51" t="s">
         <v>147</v>
@@ -5503,76 +5476,76 @@
         <v>21</v>
       </c>
       <c r="F52">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>629</v>
+        <v>6</v>
       </c>
       <c r="H52">
-        <v>20104</v>
+        <v>35</v>
       </c>
       <c r="I52">
-        <v>4207</v>
+        <v>5</v>
       </c>
       <c r="J52">
-        <v>9405</v>
+        <v>19</v>
       </c>
       <c r="K52">
-        <v>1045</v>
+        <v>0</v>
       </c>
       <c r="L52">
-        <v>2751</v>
+        <v>3</v>
       </c>
       <c r="M52">
-        <v>2513</v>
+        <v>3</v>
       </c>
       <c r="N52">
-        <v>2998</v>
+        <v>6</v>
       </c>
       <c r="O52">
-        <v>622</v>
+        <v>3</v>
       </c>
       <c r="P52">
-        <v>2411</v>
+        <v>4</v>
       </c>
       <c r="Q52">
-        <v>1338</v>
+        <v>1</v>
       </c>
       <c r="R52">
-        <v>579</v>
+        <v>1</v>
       </c>
       <c r="S52">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="T52">
-        <v>963</v>
+        <v>1</v>
       </c>
       <c r="U52">
-        <v>1002</v>
+        <v>2</v>
       </c>
       <c r="V52">
-        <v>11972</v>
+        <v>13</v>
       </c>
       <c r="W52">
-        <v>0.447</v>
+        <v>0.263</v>
       </c>
       <c r="X52">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="Y52">
-        <v>0.838</v>
+        <v>0.5</v>
       </c>
       <c r="Z52">
-        <v>32</v>
+        <v>5.8</v>
       </c>
       <c r="AA52">
-        <v>19</v>
+        <v>2.2</v>
       </c>
       <c r="AB52">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="AC52">
-        <v>2.1</v>
+        <v>0.2</v>
       </c>
       <c r="AD52" t="s">
         <v>147</v>
@@ -5595,76 +5568,76 @@
         <v>20</v>
       </c>
       <c r="F53">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>783</v>
+        <v>76</v>
       </c>
       <c r="H53">
-        <v>20785</v>
+        <v>1358</v>
       </c>
       <c r="I53">
-        <v>2923</v>
+        <v>232</v>
       </c>
       <c r="J53">
-        <v>7360</v>
+        <v>525</v>
       </c>
       <c r="K53">
-        <v>1167</v>
+        <v>50</v>
       </c>
       <c r="L53">
-        <v>3288</v>
+        <v>151</v>
       </c>
       <c r="M53">
-        <v>1019</v>
+        <v>99</v>
       </c>
       <c r="N53">
-        <v>1420</v>
+        <v>158</v>
       </c>
       <c r="O53">
-        <v>933</v>
+        <v>105</v>
       </c>
       <c r="P53">
-        <v>3666</v>
+        <v>257</v>
       </c>
       <c r="Q53">
-        <v>1138</v>
+        <v>62</v>
       </c>
       <c r="R53">
-        <v>607</v>
+        <v>42</v>
       </c>
       <c r="S53">
-        <v>148</v>
+        <v>7</v>
       </c>
       <c r="T53">
-        <v>868</v>
+        <v>64</v>
       </c>
       <c r="U53">
-        <v>1529</v>
+        <v>98</v>
       </c>
       <c r="V53">
-        <v>8032</v>
+        <v>613</v>
       </c>
       <c r="W53">
-        <v>0.397</v>
+        <v>0.442</v>
       </c>
       <c r="X53">
-        <v>0.355</v>
+        <v>0.331</v>
       </c>
       <c r="Y53">
-        <v>0.718</v>
+        <v>0.627</v>
       </c>
       <c r="Z53">
-        <v>26.5</v>
+        <v>17.9</v>
       </c>
       <c r="AA53">
-        <v>10.3</v>
+        <v>8.1</v>
       </c>
       <c r="AB53">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="AC53">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AD53" t="s">
         <v>147</v>
@@ -5865,19 +5838,19 @@
         <v>22</v>
       </c>
       <c r="F56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H56">
-        <v>303</v>
+        <v>226</v>
       </c>
       <c r="I56">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J56">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -5886,43 +5859,43 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N56">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O56">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="P56">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="Q56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R56">
         <v>2</v>
       </c>
       <c r="S56">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T56">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U56">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="V56">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="W56">
-        <v>0.389</v>
+        <v>0.375</v>
       </c>
       <c r="Y56">
-        <v>0.462</v>
+        <v>0.417</v>
       </c>
       <c r="Z56">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AA56">
         <v>1.4</v>
@@ -5931,7 +5904,7 @@
         <v>1.6</v>
       </c>
       <c r="AC56">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD56" t="s">
         <v>147</v>
@@ -5954,19 +5927,19 @@
         <v>23</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H57">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="I57">
         <v>9</v>
       </c>
       <c r="J57">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -5981,31 +5954,31 @@
         <v>2</v>
       </c>
       <c r="O57">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P57">
+        <v>15</v>
+      </c>
+      <c r="Q57">
+        <v>41</v>
+      </c>
+      <c r="R57">
+        <v>11</v>
+      </c>
+      <c r="S57">
+        <v>1</v>
+      </c>
+      <c r="T57">
+        <v>6</v>
+      </c>
+      <c r="U57">
         <v>21</v>
-      </c>
-      <c r="Q57">
-        <v>49</v>
-      </c>
-      <c r="R57">
-        <v>16</v>
-      </c>
-      <c r="S57">
-        <v>1</v>
-      </c>
-      <c r="T57">
-        <v>8</v>
-      </c>
-      <c r="U57">
-        <v>24</v>
       </c>
       <c r="V57">
         <v>20</v>
       </c>
       <c r="W57">
-        <v>0.273</v>
+        <v>0.321</v>
       </c>
       <c r="X57">
         <v>0</v>
@@ -6014,16 +5987,16 @@
         <v>1</v>
       </c>
       <c r="Z57">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="AA57">
+        <v>0.7</v>
+      </c>
+      <c r="AB57">
         <v>0.5</v>
       </c>
-      <c r="AB57">
-        <v>0.6</v>
-      </c>
       <c r="AC57">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AD57" t="s">
         <v>147</v>
@@ -6046,19 +6019,19 @@
         <v>24</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="H58">
-        <v>1418</v>
+        <v>581</v>
       </c>
       <c r="I58">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="J58">
-        <v>326</v>
+        <v>134</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -6067,52 +6040,52 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="N58">
-        <v>162</v>
+        <v>61</v>
       </c>
       <c r="O58">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="P58">
-        <v>260</v>
+        <v>102</v>
       </c>
       <c r="Q58">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="R58">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="S58">
+        <v>21</v>
+      </c>
+      <c r="T58">
         <v>47</v>
       </c>
-      <c r="T58">
-        <v>85</v>
-      </c>
       <c r="U58">
-        <v>231</v>
+        <v>101</v>
       </c>
       <c r="V58">
-        <v>417</v>
+        <v>170</v>
       </c>
       <c r="W58">
-        <v>0.469</v>
+        <v>0.478</v>
       </c>
       <c r="Y58">
-        <v>0.6850000000000001</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="Z58">
-        <v>11.6</v>
+        <v>10.8</v>
       </c>
       <c r="AA58">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AB58">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AC58">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AD58" t="s">
         <v>147</v>
@@ -6135,76 +6108,73 @@
         <v>23</v>
       </c>
       <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>9</v>
+      </c>
+      <c r="H59">
+        <v>66</v>
+      </c>
+      <c r="I59">
+        <v>11</v>
+      </c>
+      <c r="J59">
+        <v>22</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
         <v>4</v>
       </c>
-      <c r="G59">
-        <v>108</v>
-      </c>
-      <c r="H59">
-        <v>1063</v>
-      </c>
-      <c r="I59">
-        <v>125</v>
-      </c>
-      <c r="J59">
-        <v>303</v>
-      </c>
-      <c r="K59">
-        <v>1</v>
-      </c>
-      <c r="L59">
+      <c r="N59">
+        <v>6</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
         <v>8</v>
       </c>
-      <c r="M59">
-        <v>78</v>
-      </c>
-      <c r="N59">
-        <v>113</v>
-      </c>
-      <c r="O59">
-        <v>49</v>
-      </c>
-      <c r="P59">
-        <v>178</v>
-      </c>
       <c r="Q59">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="R59">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>3</v>
+      </c>
+      <c r="U59">
+        <v>7</v>
+      </c>
+      <c r="V59">
         <v>26</v>
       </c>
-      <c r="T59">
-        <v>54</v>
-      </c>
-      <c r="U59">
-        <v>166</v>
-      </c>
-      <c r="V59">
-        <v>329</v>
-      </c>
       <c r="W59">
-        <v>0.413</v>
-      </c>
-      <c r="X59">
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="Y59">
-        <v>0.6899999999999999</v>
+        <v>0.667</v>
       </c>
       <c r="Z59">
-        <v>9.800000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="AA59">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AB59">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="AC59">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AD59" t="s">
         <v>147</v>
@@ -6319,76 +6289,76 @@
         <v>19</v>
       </c>
       <c r="F61">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>824</v>
+        <v>40</v>
       </c>
       <c r="H61">
-        <v>18396</v>
+        <v>293</v>
       </c>
       <c r="I61">
-        <v>2238</v>
+        <v>31</v>
       </c>
       <c r="J61">
-        <v>5515</v>
+        <v>91</v>
       </c>
       <c r="K61">
-        <v>550</v>
+        <v>1</v>
       </c>
       <c r="L61">
-        <v>1617</v>
+        <v>12</v>
       </c>
       <c r="M61">
-        <v>904</v>
+        <v>26</v>
       </c>
       <c r="N61">
-        <v>1296</v>
+        <v>38</v>
       </c>
       <c r="O61">
-        <v>410</v>
+        <v>9</v>
       </c>
       <c r="P61">
-        <v>1832</v>
+        <v>28</v>
       </c>
       <c r="Q61">
-        <v>1355</v>
+        <v>18</v>
       </c>
       <c r="R61">
-        <v>423</v>
+        <v>10</v>
       </c>
       <c r="S61">
-        <v>134</v>
+        <v>2</v>
       </c>
       <c r="T61">
-        <v>814</v>
+        <v>28</v>
       </c>
       <c r="U61">
-        <v>1140</v>
+        <v>29</v>
       </c>
       <c r="V61">
-        <v>5930</v>
+        <v>89</v>
       </c>
       <c r="W61">
-        <v>0.406</v>
+        <v>0.341</v>
       </c>
       <c r="X61">
-        <v>0.34</v>
+        <v>0.083</v>
       </c>
       <c r="Y61">
-        <v>0.698</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="Z61">
-        <v>22.3</v>
+        <v>7.3</v>
       </c>
       <c r="AA61">
-        <v>7.2</v>
+        <v>2.2</v>
       </c>
       <c r="AB61">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="AC61">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="AD61" t="s">
         <v>147</v>
@@ -6411,76 +6381,76 @@
         <v>21</v>
       </c>
       <c r="F62">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>547</v>
+        <v>80</v>
       </c>
       <c r="H62">
-        <v>10804</v>
+        <v>1312</v>
       </c>
       <c r="I62">
-        <v>1713</v>
+        <v>153</v>
       </c>
       <c r="J62">
-        <v>3623</v>
+        <v>339</v>
       </c>
       <c r="K62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="M62">
-        <v>1154</v>
+        <v>85</v>
       </c>
       <c r="N62">
-        <v>1650</v>
+        <v>141</v>
       </c>
       <c r="O62">
-        <v>885</v>
+        <v>109</v>
       </c>
       <c r="P62">
-        <v>2535</v>
+        <v>284</v>
       </c>
       <c r="Q62">
-        <v>275</v>
+        <v>28</v>
       </c>
       <c r="R62">
-        <v>354</v>
+        <v>62</v>
       </c>
       <c r="S62">
-        <v>683</v>
+        <v>82</v>
       </c>
       <c r="T62">
-        <v>690</v>
+        <v>64</v>
       </c>
       <c r="U62">
-        <v>1357</v>
+        <v>160</v>
       </c>
       <c r="V62">
-        <v>4582</v>
+        <v>391</v>
       </c>
       <c r="W62">
-        <v>0.473</v>
+        <v>0.451</v>
       </c>
       <c r="X62">
-        <v>0.074</v>
+        <v>0</v>
       </c>
       <c r="Y62">
-        <v>0.699</v>
+        <v>0.603</v>
       </c>
       <c r="Z62">
-        <v>19.8</v>
+        <v>16.4</v>
       </c>
       <c r="AA62">
-        <v>8.4</v>
+        <v>4.9</v>
       </c>
       <c r="AB62">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="AC62">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AD62" t="s">
         <v>147</v>
@@ -6592,73 +6562,70 @@
         <v>21</v>
       </c>
       <c r="F64">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G64">
-        <v>315</v>
+        <v>57</v>
       </c>
       <c r="H64">
-        <v>5005</v>
+        <v>947</v>
       </c>
       <c r="I64">
-        <v>580</v>
+        <v>101</v>
       </c>
       <c r="J64">
-        <v>1184</v>
+        <v>215</v>
       </c>
       <c r="K64">
         <v>0</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64">
-        <v>337</v>
+        <v>54</v>
       </c>
       <c r="N64">
-        <v>513</v>
+        <v>91</v>
       </c>
       <c r="O64">
-        <v>436</v>
+        <v>83</v>
       </c>
       <c r="P64">
-        <v>1238</v>
+        <v>242</v>
       </c>
       <c r="Q64">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="R64">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="S64">
-        <v>223</v>
+        <v>55</v>
       </c>
       <c r="T64">
-        <v>268</v>
+        <v>66</v>
       </c>
       <c r="U64">
-        <v>689</v>
+        <v>137</v>
       </c>
       <c r="V64">
-        <v>1497</v>
+        <v>256</v>
       </c>
       <c r="W64">
-        <v>0.49</v>
-      </c>
-      <c r="X64">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="Y64">
-        <v>0.657</v>
+        <v>0.593</v>
       </c>
       <c r="Z64">
-        <v>15.9</v>
+        <v>16.6</v>
       </c>
       <c r="AA64">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="AB64">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="AC64">
         <v>0.3</v>
@@ -6684,76 +6651,76 @@
         <v>21</v>
       </c>
       <c r="F65">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G65">
-        <v>997</v>
+        <v>74</v>
       </c>
       <c r="H65">
-        <v>26695</v>
+        <v>1245</v>
       </c>
       <c r="I65">
-        <v>3851</v>
+        <v>138</v>
       </c>
       <c r="J65">
-        <v>9034</v>
+        <v>335</v>
       </c>
       <c r="K65">
-        <v>1246</v>
+        <v>28</v>
       </c>
       <c r="L65">
-        <v>3246</v>
+        <v>86</v>
       </c>
       <c r="M65">
-        <v>2074</v>
+        <v>87</v>
       </c>
       <c r="N65">
-        <v>2645</v>
+        <v>112</v>
       </c>
       <c r="O65">
-        <v>647</v>
+        <v>49</v>
       </c>
       <c r="P65">
-        <v>3971</v>
+        <v>210</v>
       </c>
       <c r="Q65">
-        <v>2832</v>
+        <v>69</v>
       </c>
       <c r="R65">
-        <v>750</v>
+        <v>52</v>
       </c>
       <c r="S65">
-        <v>299</v>
+        <v>24</v>
       </c>
       <c r="T65">
-        <v>1578</v>
+        <v>55</v>
       </c>
       <c r="U65">
-        <v>2403</v>
+        <v>139</v>
       </c>
       <c r="V65">
-        <v>11022</v>
+        <v>391</v>
       </c>
       <c r="W65">
-        <v>0.426</v>
+        <v>0.412</v>
       </c>
       <c r="X65">
-        <v>0.384</v>
+        <v>0.326</v>
       </c>
       <c r="Y65">
-        <v>0.784</v>
+        <v>0.777</v>
       </c>
       <c r="Z65">
-        <v>26.8</v>
+        <v>16.8</v>
       </c>
       <c r="AA65">
-        <v>11.1</v>
+        <v>5.3</v>
       </c>
       <c r="AB65">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="AC65">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="AD65" t="s">
         <v>147</v>
@@ -6868,76 +6835,73 @@
         <v>23</v>
       </c>
       <c r="F67">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>450</v>
+        <v>16</v>
       </c>
       <c r="H67">
-        <v>6443</v>
+        <v>143</v>
       </c>
       <c r="I67">
-        <v>673</v>
+        <v>11</v>
       </c>
       <c r="J67">
-        <v>1381</v>
+        <v>25</v>
       </c>
       <c r="K67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M67">
-        <v>467</v>
+        <v>8</v>
       </c>
       <c r="N67">
-        <v>654</v>
+        <v>14</v>
       </c>
       <c r="O67">
-        <v>562</v>
+        <v>12</v>
       </c>
       <c r="P67">
-        <v>1539</v>
+        <v>34</v>
       </c>
       <c r="Q67">
-        <v>237</v>
+        <v>5</v>
       </c>
       <c r="R67">
-        <v>148</v>
+        <v>5</v>
       </c>
       <c r="S67">
-        <v>166</v>
+        <v>6</v>
       </c>
       <c r="T67">
-        <v>340</v>
+        <v>12</v>
       </c>
       <c r="U67">
-        <v>1166</v>
+        <v>38</v>
       </c>
       <c r="V67">
-        <v>1814</v>
+        <v>30</v>
       </c>
       <c r="W67">
-        <v>0.487</v>
-      </c>
-      <c r="X67">
-        <v>0.333</v>
+        <v>0.44</v>
       </c>
       <c r="Y67">
-        <v>0.714</v>
+        <v>0.571</v>
       </c>
       <c r="Z67">
-        <v>14.3</v>
+        <v>8.9</v>
       </c>
       <c r="AA67">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="AB67">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="AC67">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AD67" t="s">
         <v>147</v>
@@ -6960,40 +6924,40 @@
         <v>27</v>
       </c>
       <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>34</v>
+      </c>
+      <c r="H68">
+        <v>305</v>
+      </c>
+      <c r="I68">
+        <v>25</v>
+      </c>
+      <c r="J68">
+        <v>79</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
         <v>2</v>
       </c>
-      <c r="G68">
-        <v>41</v>
-      </c>
-      <c r="H68">
-        <v>329</v>
-      </c>
-      <c r="I68">
-        <v>27</v>
-      </c>
-      <c r="J68">
-        <v>83</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>3</v>
-      </c>
       <c r="M68">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N68">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="O68">
         <v>12</v>
       </c>
       <c r="P68">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R68">
         <v>6</v>
@@ -7002,31 +6966,31 @@
         <v>18</v>
       </c>
       <c r="T68">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U68">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="V68">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="W68">
-        <v>0.325</v>
+        <v>0.316</v>
       </c>
       <c r="X68">
         <v>0</v>
       </c>
       <c r="Y68">
-        <v>0.6840000000000001</v>
+        <v>0.735</v>
       </c>
       <c r="Z68">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA68">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AB68">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AC68">
         <v>0.1</v>
@@ -7052,76 +7016,76 @@
         <v>23</v>
       </c>
       <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
         <v>5</v>
       </c>
-      <c r="G69">
-        <v>137</v>
-      </c>
       <c r="H69">
-        <v>1256</v>
+        <v>38</v>
       </c>
       <c r="I69">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="J69">
-        <v>511</v>
+        <v>19</v>
       </c>
       <c r="K69">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="L69">
-        <v>182</v>
+        <v>2</v>
       </c>
       <c r="M69">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="N69">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="O69">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="P69">
-        <v>231</v>
+        <v>7</v>
       </c>
       <c r="Q69">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="R69">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="S69">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="T69">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="U69">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="V69">
-        <v>604</v>
+        <v>24</v>
       </c>
       <c r="W69">
-        <v>0.417</v>
+        <v>0.421</v>
       </c>
       <c r="X69">
-        <v>0.385</v>
+        <v>0</v>
       </c>
       <c r="Y69">
-        <v>0.735</v>
+        <v>0.8</v>
       </c>
       <c r="Z69">
-        <v>9.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AA69">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="AB69">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="AC69">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AD69" t="s">
         <v>147</v>
